--- a/debug/TAO_debug.xlsx
+++ b/debug/TAO_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE641"/>
+  <dimension ref="A1:AE648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -65503,13 +65503,13 @@
         <v>399.9</v>
       </c>
       <c r="C641" t="n">
-        <v>453.8</v>
+        <v>460</v>
       </c>
       <c r="D641" t="n">
         <v>394.4</v>
       </c>
       <c r="E641" t="n">
-        <v>445.8</v>
+        <v>438.6</v>
       </c>
       <c r="F641" t="inlineStr">
         <is>
@@ -65592,6 +65592,713 @@
       </c>
       <c r="AE641" t="n">
         <v>394.4</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>438.7</v>
+      </c>
+      <c r="C642" t="n">
+        <v>456.3</v>
+      </c>
+      <c r="D642" t="n">
+        <v>418.1</v>
+      </c>
+      <c r="E642" t="n">
+        <v>422.8</v>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G642" t="b">
+        <v>0</v>
+      </c>
+      <c r="H642" t="n">
+        <v/>
+      </c>
+      <c r="I642" t="n">
+        <v/>
+      </c>
+      <c r="J642" t="n">
+        <v/>
+      </c>
+      <c r="K642" t="n">
+        <v/>
+      </c>
+      <c r="L642" t="n">
+        <v/>
+      </c>
+      <c r="M642" t="n">
+        <v/>
+      </c>
+      <c r="N642" t="n">
+        <v/>
+      </c>
+      <c r="O642" t="n">
+        <v>500</v>
+      </c>
+      <c r="P642" t="n">
+        <v>275</v>
+      </c>
+      <c r="Q642" t="n">
+        <v/>
+      </c>
+      <c r="R642" t="n">
+        <v/>
+      </c>
+      <c r="S642" t="n">
+        <v>7</v>
+      </c>
+      <c r="T642" t="n">
+        <v>280</v>
+      </c>
+      <c r="U642" t="n">
+        <v>260</v>
+      </c>
+      <c r="V642" t="n">
+        <v>230</v>
+      </c>
+      <c r="W642" t="n">
+        <v>205</v>
+      </c>
+      <c r="X642" t="n">
+        <v>175</v>
+      </c>
+      <c r="Y642" t="n">
+        <v>140</v>
+      </c>
+      <c r="Z642" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA642" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB642" t="n">
+        <v>296.175</v>
+      </c>
+      <c r="AC642" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD642" t="n">
+        <v>105</v>
+      </c>
+      <c r="AE642" t="n">
+        <v>418.1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>422.9</v>
+      </c>
+      <c r="C643" t="n">
+        <v>434.6</v>
+      </c>
+      <c r="D643" t="n">
+        <v>380.2</v>
+      </c>
+      <c r="E643" t="n">
+        <v>382.1</v>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G643" t="b">
+        <v>0</v>
+      </c>
+      <c r="H643" t="n">
+        <v/>
+      </c>
+      <c r="I643" t="n">
+        <v/>
+      </c>
+      <c r="J643" t="n">
+        <v/>
+      </c>
+      <c r="K643" t="n">
+        <v/>
+      </c>
+      <c r="L643" t="n">
+        <v/>
+      </c>
+      <c r="M643" t="n">
+        <v/>
+      </c>
+      <c r="N643" t="n">
+        <v/>
+      </c>
+      <c r="O643" t="n">
+        <v>500</v>
+      </c>
+      <c r="P643" t="n">
+        <v>275</v>
+      </c>
+      <c r="Q643" t="n">
+        <v/>
+      </c>
+      <c r="R643" t="n">
+        <v/>
+      </c>
+      <c r="S643" t="n">
+        <v>7</v>
+      </c>
+      <c r="T643" t="n">
+        <v>280</v>
+      </c>
+      <c r="U643" t="n">
+        <v>260</v>
+      </c>
+      <c r="V643" t="n">
+        <v>230</v>
+      </c>
+      <c r="W643" t="n">
+        <v>205</v>
+      </c>
+      <c r="X643" t="n">
+        <v>175</v>
+      </c>
+      <c r="Y643" t="n">
+        <v>140</v>
+      </c>
+      <c r="Z643" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA643" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB643" t="n">
+        <v>296.175</v>
+      </c>
+      <c r="AC643" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD643" t="n">
+        <v>105</v>
+      </c>
+      <c r="AE643" t="n">
+        <v>380.2</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>382</v>
+      </c>
+      <c r="C644" t="n">
+        <v>400.8</v>
+      </c>
+      <c r="D644" t="n">
+        <v>366.2</v>
+      </c>
+      <c r="E644" t="n">
+        <v>380.4</v>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G644" t="b">
+        <v>0</v>
+      </c>
+      <c r="H644" t="n">
+        <v/>
+      </c>
+      <c r="I644" t="n">
+        <v/>
+      </c>
+      <c r="J644" t="n">
+        <v/>
+      </c>
+      <c r="K644" t="n">
+        <v/>
+      </c>
+      <c r="L644" t="n">
+        <v/>
+      </c>
+      <c r="M644" t="n">
+        <v/>
+      </c>
+      <c r="N644" t="n">
+        <v/>
+      </c>
+      <c r="O644" t="n">
+        <v>500</v>
+      </c>
+      <c r="P644" t="n">
+        <v>275</v>
+      </c>
+      <c r="Q644" t="n">
+        <v/>
+      </c>
+      <c r="R644" t="n">
+        <v/>
+      </c>
+      <c r="S644" t="n">
+        <v>7</v>
+      </c>
+      <c r="T644" t="n">
+        <v>280</v>
+      </c>
+      <c r="U644" t="n">
+        <v>260</v>
+      </c>
+      <c r="V644" t="n">
+        <v>230</v>
+      </c>
+      <c r="W644" t="n">
+        <v>205</v>
+      </c>
+      <c r="X644" t="n">
+        <v>175</v>
+      </c>
+      <c r="Y644" t="n">
+        <v>140</v>
+      </c>
+      <c r="Z644" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA644" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB644" t="n">
+        <v>296.175</v>
+      </c>
+      <c r="AC644" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD644" t="n">
+        <v>105</v>
+      </c>
+      <c r="AE644" t="n">
+        <v>366.2</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>380.4</v>
+      </c>
+      <c r="C645" t="n">
+        <v>397.3</v>
+      </c>
+      <c r="D645" t="n">
+        <v>370.2</v>
+      </c>
+      <c r="E645" t="n">
+        <v>386.2</v>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G645" t="b">
+        <v>0</v>
+      </c>
+      <c r="H645" t="n">
+        <v/>
+      </c>
+      <c r="I645" t="n">
+        <v/>
+      </c>
+      <c r="J645" t="n">
+        <v/>
+      </c>
+      <c r="K645" t="n">
+        <v/>
+      </c>
+      <c r="L645" t="n">
+        <v/>
+      </c>
+      <c r="M645" t="n">
+        <v/>
+      </c>
+      <c r="N645" t="n">
+        <v/>
+      </c>
+      <c r="O645" t="n">
+        <v>500</v>
+      </c>
+      <c r="P645" t="n">
+        <v>275</v>
+      </c>
+      <c r="Q645" t="n">
+        <v/>
+      </c>
+      <c r="R645" t="n">
+        <v/>
+      </c>
+      <c r="S645" t="n">
+        <v>7</v>
+      </c>
+      <c r="T645" t="n">
+        <v>280</v>
+      </c>
+      <c r="U645" t="n">
+        <v>260</v>
+      </c>
+      <c r="V645" t="n">
+        <v>230</v>
+      </c>
+      <c r="W645" t="n">
+        <v>205</v>
+      </c>
+      <c r="X645" t="n">
+        <v>175</v>
+      </c>
+      <c r="Y645" t="n">
+        <v>140</v>
+      </c>
+      <c r="Z645" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA645" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB645" t="n">
+        <v>296.175</v>
+      </c>
+      <c r="AC645" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD645" t="n">
+        <v>105</v>
+      </c>
+      <c r="AE645" t="n">
+        <v>370.2</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>386.2</v>
+      </c>
+      <c r="C646" t="n">
+        <v>402.4</v>
+      </c>
+      <c r="D646" t="n">
+        <v>377.3</v>
+      </c>
+      <c r="E646" t="n">
+        <v>385.2</v>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G646" t="b">
+        <v>0</v>
+      </c>
+      <c r="H646" t="n">
+        <v/>
+      </c>
+      <c r="I646" t="n">
+        <v/>
+      </c>
+      <c r="J646" t="n">
+        <v/>
+      </c>
+      <c r="K646" t="n">
+        <v/>
+      </c>
+      <c r="L646" t="n">
+        <v/>
+      </c>
+      <c r="M646" t="n">
+        <v/>
+      </c>
+      <c r="N646" t="n">
+        <v/>
+      </c>
+      <c r="O646" t="n">
+        <v>500</v>
+      </c>
+      <c r="P646" t="n">
+        <v>275</v>
+      </c>
+      <c r="Q646" t="n">
+        <v/>
+      </c>
+      <c r="R646" t="n">
+        <v/>
+      </c>
+      <c r="S646" t="n">
+        <v>7</v>
+      </c>
+      <c r="T646" t="n">
+        <v>280</v>
+      </c>
+      <c r="U646" t="n">
+        <v>260</v>
+      </c>
+      <c r="V646" t="n">
+        <v>230</v>
+      </c>
+      <c r="W646" t="n">
+        <v>205</v>
+      </c>
+      <c r="X646" t="n">
+        <v>175</v>
+      </c>
+      <c r="Y646" t="n">
+        <v>140</v>
+      </c>
+      <c r="Z646" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA646" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB646" t="n">
+        <v>296.175</v>
+      </c>
+      <c r="AC646" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD646" t="n">
+        <v>105</v>
+      </c>
+      <c r="AE646" t="n">
+        <v>377.3</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>385.1</v>
+      </c>
+      <c r="C647" t="n">
+        <v>399</v>
+      </c>
+      <c r="D647" t="n">
+        <v>378.7</v>
+      </c>
+      <c r="E647" t="n">
+        <v>396.5</v>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G647" t="b">
+        <v>0</v>
+      </c>
+      <c r="H647" t="n">
+        <v/>
+      </c>
+      <c r="I647" t="n">
+        <v/>
+      </c>
+      <c r="J647" t="n">
+        <v/>
+      </c>
+      <c r="K647" t="n">
+        <v/>
+      </c>
+      <c r="L647" t="n">
+        <v/>
+      </c>
+      <c r="M647" t="n">
+        <v/>
+      </c>
+      <c r="N647" t="n">
+        <v/>
+      </c>
+      <c r="O647" t="n">
+        <v>500</v>
+      </c>
+      <c r="P647" t="n">
+        <v>275</v>
+      </c>
+      <c r="Q647" t="n">
+        <v/>
+      </c>
+      <c r="R647" t="n">
+        <v/>
+      </c>
+      <c r="S647" t="n">
+        <v>7</v>
+      </c>
+      <c r="T647" t="n">
+        <v>280</v>
+      </c>
+      <c r="U647" t="n">
+        <v>260</v>
+      </c>
+      <c r="V647" t="n">
+        <v>230</v>
+      </c>
+      <c r="W647" t="n">
+        <v>205</v>
+      </c>
+      <c r="X647" t="n">
+        <v>175</v>
+      </c>
+      <c r="Y647" t="n">
+        <v>140</v>
+      </c>
+      <c r="Z647" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA647" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB647" t="n">
+        <v>296.175</v>
+      </c>
+      <c r="AC647" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD647" t="n">
+        <v>105</v>
+      </c>
+      <c r="AE647" t="n">
+        <v>378.7</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>396.4</v>
+      </c>
+      <c r="C648" t="n">
+        <v>424.2</v>
+      </c>
+      <c r="D648" t="n">
+        <v>388.7</v>
+      </c>
+      <c r="E648" t="n">
+        <v>402.6</v>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G648" t="b">
+        <v>0</v>
+      </c>
+      <c r="H648" t="n">
+        <v/>
+      </c>
+      <c r="I648" t="n">
+        <v/>
+      </c>
+      <c r="J648" t="n">
+        <v/>
+      </c>
+      <c r="K648" t="n">
+        <v/>
+      </c>
+      <c r="L648" t="n">
+        <v/>
+      </c>
+      <c r="M648" t="n">
+        <v/>
+      </c>
+      <c r="N648" t="n">
+        <v/>
+      </c>
+      <c r="O648" t="n">
+        <v>500</v>
+      </c>
+      <c r="P648" t="n">
+        <v>275</v>
+      </c>
+      <c r="Q648" t="n">
+        <v/>
+      </c>
+      <c r="R648" t="n">
+        <v/>
+      </c>
+      <c r="S648" t="n">
+        <v>7</v>
+      </c>
+      <c r="T648" t="n">
+        <v>280</v>
+      </c>
+      <c r="U648" t="n">
+        <v>260</v>
+      </c>
+      <c r="V648" t="n">
+        <v>230</v>
+      </c>
+      <c r="W648" t="n">
+        <v>205</v>
+      </c>
+      <c r="X648" t="n">
+        <v>175</v>
+      </c>
+      <c r="Y648" t="n">
+        <v>140</v>
+      </c>
+      <c r="Z648" t="n">
+        <v>105</v>
+      </c>
+      <c r="AA648" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB648" t="n">
+        <v>296.175</v>
+      </c>
+      <c r="AC648" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD648" t="n">
+        <v>105</v>
+      </c>
+      <c r="AE648" t="n">
+        <v>388.7</v>
       </c>
     </row>
   </sheetData>
